--- a/src/main/resources/template/excel/export/CsrserviceSaleFlow.xlsx
+++ b/src/main/resources/template/excel/export/CsrserviceSaleFlow.xlsx
@@ -227,7 +227,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -322,13 +322,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -657,24 +657,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -739,7 +739,7 @@
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -786,19 +786,19 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="M4" s="1"/>
